--- a/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E92E79-36C2-445D-81E4-94284D44F64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDF878-1495-4C6A-8FCF-7A952C3D4001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$56</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">November!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">November!$A$1:$M$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">October!$A$1:$K$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Overall Attendance'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">September!$A$1:$K$29</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="65">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -649,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,97 +778,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -884,6 +794,101 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1481,118 +1486,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="C1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1606,10 +1611,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1621,16 +1626,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -1640,12 +1645,12 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -1665,19 +1670,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2512,16 +2517,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="67"/>
+      <c r="D55" s="58"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="67" t="s">
+      <c r="H55" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="67"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2541,16 +2546,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2562,6 +2557,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2599,118 +2604,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="C1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2724,10 +2729,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -2745,16 +2750,16 @@
       <c r="G10" s="28"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -2766,12 +2771,12 @@
       <c r="G11" s="32"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -2797,19 +2802,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3223,16 +3228,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="67"/>
+      <c r="D28" s="58"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3252,12 +3257,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3267,12 +3272,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3288,7 +3293,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:I6"/>
     </sheetView>
   </sheetViews>
@@ -3309,118 +3314,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="C1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -3434,10 +3439,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -3455,16 +3460,16 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -3480,12 +3485,12 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="60"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -3511,19 +3516,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3937,16 +3942,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="67"/>
+      <c r="D28" s="58"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3966,12 +3971,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3981,12 +3986,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4000,10 +4005,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4011,180 +4016,204 @@
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="5" width="10.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-    </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="59"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-    </row>
-    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-    </row>
-    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="59"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="28">
+        <v>5</v>
+      </c>
+      <c r="E10" s="28">
         <v>6</v>
       </c>
-      <c r="E10" s="28">
+      <c r="F10" s="28">
         <v>13</v>
       </c>
-      <c r="F10" s="28">
+      <c r="G10" s="28">
         <v>20</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
+        <v>26</v>
+      </c>
+      <c r="I10" s="28">
         <v>27</v>
       </c>
-      <c r="H10" s="27">
-        <v>3</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="J10" s="27">
+        <v>3</v>
+      </c>
+      <c r="K10" s="27">
         <v>4</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="L10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="M10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+    <row r="11" spans="1:13" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="63"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -4206,12 +4235,18 @@
       <c r="I11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="60"/>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
+      <c r="J11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="77"/>
+      <c r="M11" s="72"/>
+    </row>
+    <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -4233,31 +4268,39 @@
       <c r="I12" s="24">
         <v>3</v>
       </c>
-      <c r="J12" s="25">
-        <f>SUM(D12:I12)</f>
-        <v>18</v>
-      </c>
-      <c r="K12" s="31">
-        <f>(J12/$J$12)*100</f>
+      <c r="J12" s="24">
+        <v>3</v>
+      </c>
+      <c r="K12" s="24">
+        <v>3</v>
+      </c>
+      <c r="L12" s="25">
+        <f>SUM(D12:K12)</f>
+        <v>24</v>
+      </c>
+      <c r="M12" s="31">
+        <f>(L12/$L$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="55"/>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -4274,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="19">
         <v>3</v>
@@ -4285,16 +4328,22 @@
       <c r="I14" s="19">
         <v>3</v>
       </c>
-      <c r="J14" s="25">
-        <f>SUM(D14:I14)</f>
-        <v>12</v>
-      </c>
-      <c r="K14" s="26">
-        <f t="shared" ref="K14:K26" si="0">(J14/$J$12)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <f>SUM(D14:K14)</f>
+        <v>9</v>
+      </c>
+      <c r="M14" s="26">
+        <f t="shared" ref="M14:M26" si="0">(L14/$L$12)*100</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -4313,25 +4362,31 @@
       <c r="F15" s="16">
         <v>3</v>
       </c>
-      <c r="G15" s="19">
-        <v>3</v>
-      </c>
-      <c r="H15" s="16">
-        <v>3</v>
-      </c>
-      <c r="I15" s="16">
-        <v>3</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" ref="J15:J26" si="1">SUM(D15:I15)</f>
-        <v>18</v>
-      </c>
-      <c r="K15" s="20">
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="19">
+        <v>3</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3</v>
+      </c>
+      <c r="J15" s="16">
+        <v>3</v>
+      </c>
+      <c r="K15" s="16">
+        <v>3</v>
+      </c>
+      <c r="L15" s="25">
+        <f t="shared" ref="L15:L26" si="1">SUM(D15:K15)</f>
+        <v>24</v>
+      </c>
+      <c r="M15" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -4350,25 +4405,31 @@
       <c r="F16" s="16">
         <v>3</v>
       </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="16">
-        <v>3</v>
-      </c>
-      <c r="I16" s="16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K16" s="20">
+      <c r="G16" s="16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>3</v>
+      </c>
+      <c r="I16" s="19">
+        <v>3</v>
+      </c>
+      <c r="J16" s="16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M16" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>4</v>
       </c>
@@ -4387,25 +4448,31 @@
       <c r="F17" s="16">
         <v>3</v>
       </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16">
-        <v>3</v>
-      </c>
-      <c r="I17" s="16">
-        <v>3</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="0"/>
-        <v>83.333333333333343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="16">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>3</v>
+      </c>
+      <c r="K17" s="16">
+        <v>3</v>
+      </c>
+      <c r="L17" s="25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -4424,25 +4491,31 @@
       <c r="F18" s="16">
         <v>3</v>
       </c>
-      <c r="G18" s="19">
-        <v>3</v>
-      </c>
-      <c r="H18" s="16">
-        <v>3</v>
-      </c>
-      <c r="I18" s="16">
-        <v>3</v>
-      </c>
-      <c r="J18" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K18" s="20">
+      <c r="G18" s="16">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19">
+        <v>3</v>
+      </c>
+      <c r="I18" s="19">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16">
+        <v>3</v>
+      </c>
+      <c r="K18" s="16">
+        <v>3</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M18" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>6</v>
       </c>
@@ -4461,25 +4534,31 @@
       <c r="F19" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="19">
-        <v>3</v>
-      </c>
-      <c r="H19" s="16">
-        <v>3</v>
-      </c>
-      <c r="I19" s="16">
-        <v>3</v>
-      </c>
-      <c r="J19" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K19" s="20">
+      <c r="G19" s="16">
+        <v>3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="16">
+        <v>3</v>
+      </c>
+      <c r="K19" s="16">
+        <v>3</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M19" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>7</v>
       </c>
@@ -4498,25 +4577,31 @@
       <c r="F20" s="16">
         <v>3</v>
       </c>
-      <c r="G20" s="19">
-        <v>3</v>
-      </c>
-      <c r="H20" s="16">
-        <v>3</v>
-      </c>
-      <c r="I20" s="16">
-        <v>3</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K20" s="20">
+      <c r="G20" s="16">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>3</v>
+      </c>
+      <c r="I20" s="19">
+        <v>3</v>
+      </c>
+      <c r="J20" s="16">
+        <v>3</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3</v>
+      </c>
+      <c r="L20" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M20" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>8</v>
       </c>
@@ -4535,25 +4620,31 @@
       <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="G21" s="19">
-        <v>3</v>
-      </c>
-      <c r="H21" s="16">
-        <v>3</v>
-      </c>
-      <c r="I21" s="16">
-        <v>3</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K21" s="20">
+      <c r="G21" s="16">
+        <v>3</v>
+      </c>
+      <c r="H21" s="19">
+        <v>3</v>
+      </c>
+      <c r="I21" s="19">
+        <v>3</v>
+      </c>
+      <c r="J21" s="16">
+        <v>3</v>
+      </c>
+      <c r="K21" s="16">
+        <v>3</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M21" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>9</v>
       </c>
@@ -4572,25 +4663,31 @@
       <c r="F22" s="16">
         <v>3</v>
       </c>
-      <c r="G22" s="19">
-        <v>3</v>
-      </c>
-      <c r="H22" s="16">
-        <v>3</v>
-      </c>
-      <c r="I22" s="16">
-        <v>3</v>
-      </c>
-      <c r="J22" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K22" s="20">
+      <c r="G22" s="16">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19">
+        <v>3</v>
+      </c>
+      <c r="I22" s="19">
+        <v>3</v>
+      </c>
+      <c r="J22" s="16">
+        <v>3</v>
+      </c>
+      <c r="K22" s="16">
+        <v>3</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M22" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>10</v>
       </c>
@@ -4609,25 +4706,31 @@
       <c r="F23" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="19">
-        <v>3</v>
-      </c>
-      <c r="H23" s="16">
-        <v>3</v>
-      </c>
-      <c r="I23" s="16">
-        <v>3</v>
-      </c>
-      <c r="J23" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K23" s="20">
+      <c r="G23" s="16">
+        <v>3</v>
+      </c>
+      <c r="H23" s="19">
+        <v>3</v>
+      </c>
+      <c r="I23" s="19">
+        <v>3</v>
+      </c>
+      <c r="J23" s="16">
+        <v>3</v>
+      </c>
+      <c r="K23" s="16">
+        <v>3</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M23" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>11</v>
       </c>
@@ -4646,25 +4749,31 @@
       <c r="F24" s="16">
         <v>3</v>
       </c>
-      <c r="G24" s="19">
-        <v>3</v>
-      </c>
-      <c r="H24" s="16">
-        <v>3</v>
-      </c>
-      <c r="I24" s="16">
-        <v>3</v>
-      </c>
-      <c r="J24" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K24" s="20">
+      <c r="G24" s="16">
+        <v>3</v>
+      </c>
+      <c r="H24" s="19">
+        <v>3</v>
+      </c>
+      <c r="I24" s="19">
+        <v>3</v>
+      </c>
+      <c r="J24" s="16">
+        <v>3</v>
+      </c>
+      <c r="K24" s="16">
+        <v>3</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M24" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>12</v>
       </c>
@@ -4683,25 +4792,31 @@
       <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="G25" s="19">
-        <v>3</v>
-      </c>
-      <c r="H25" s="16">
-        <v>3</v>
-      </c>
-      <c r="I25" s="16">
-        <v>3</v>
-      </c>
-      <c r="J25" s="25">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K25" s="20">
+      <c r="G25" s="16">
+        <v>3</v>
+      </c>
+      <c r="H25" s="19">
+        <v>3</v>
+      </c>
+      <c r="I25" s="19">
+        <v>3</v>
+      </c>
+      <c r="J25" s="16">
+        <v>3</v>
+      </c>
+      <c r="K25" s="16">
+        <v>3</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M25" s="20">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>13</v>
       </c>
@@ -4715,88 +4830,102 @@
         <v>3</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="16">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>3</v>
-      </c>
-      <c r="I26" s="16">
-        <v>3</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K26" s="20">
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>3</v>
+      </c>
+      <c r="K26" s="16">
+        <v>3</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M26" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="89"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="67" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="90"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
+      <c r="K28" s="58"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:K7"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="F8:K8"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4812,8 +4941,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4834,103 +4963,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
+      <c r="C1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="81"/>
+      <c r="E6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -4944,56 +5073,56 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="76" t="str">
+      <c r="C9" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="88" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="88" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="76" t="str">
+      <c r="F9" s="88" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="76" t="str">
-        <f>November!E5</f>
+      <c r="G9" s="88" t="str">
+        <f>November!F5</f>
         <v>November 2022</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="79"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
@@ -5010,18 +5139,18 @@
         <v>9</v>
       </c>
       <c r="G11" s="8">
-        <f>November!J12</f>
-        <v>18</v>
+        <f>November!L12</f>
+        <v>24</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" ref="H11:H24" si="0">SUM(D11:G11)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I11" s="33">
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="79"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
@@ -5046,16 +5175,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="40">
-        <f>November!J14</f>
-        <v>12</v>
+        <f>November!L14</f>
+        <v>9</v>
       </c>
       <c r="H12" s="41">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I12" s="42">
         <f t="shared" ref="I12:I24" si="1">(H12/$H$11)*100</f>
-        <v>50</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="J12" s="43" t="str">
         <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
@@ -5085,12 +5214,12 @@
         <v>9</v>
       </c>
       <c r="G13" s="16">
-        <f>November!J15</f>
-        <v>18</v>
+        <f>November!L15</f>
+        <v>24</v>
       </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I13" s="33">
         <f t="shared" si="1"/>
@@ -5124,12 +5253,12 @@
         <v>9</v>
       </c>
       <c r="G14" s="16">
-        <f>November!J16</f>
-        <v>18</v>
+        <f>November!L16</f>
+        <v>24</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I14" s="33">
         <f t="shared" si="1"/>
@@ -5163,16 +5292,16 @@
         <v>9</v>
       </c>
       <c r="G15" s="16">
-        <f>November!J17</f>
-        <v>15</v>
+        <f>November!L17</f>
+        <v>18</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I15" s="33">
         <f t="shared" si="1"/>
-        <v>91.666666666666657</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="J15" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5202,12 +5331,12 @@
         <v>9</v>
       </c>
       <c r="G16" s="16">
-        <f>November!J18</f>
-        <v>18</v>
+        <f>November!L18</f>
+        <v>24</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I16" s="33">
         <f t="shared" si="1"/>
@@ -5241,16 +5370,16 @@
         <v>9</v>
       </c>
       <c r="G17" s="16">
-        <f>November!J19</f>
-        <v>18</v>
+        <f>November!L19</f>
+        <v>24</v>
       </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I17" s="33">
         <f t="shared" si="1"/>
-        <v>91.666666666666657</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="J17" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5280,12 +5409,12 @@
         <v>9</v>
       </c>
       <c r="G18" s="16">
-        <f>November!J20</f>
-        <v>18</v>
+        <f>November!L20</f>
+        <v>24</v>
       </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="1"/>
@@ -5319,16 +5448,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="46">
-        <f>November!J21</f>
-        <v>18</v>
+        <f>November!L21</f>
+        <v>24</v>
       </c>
       <c r="H19" s="47">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I19" s="48">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="J19" s="49" t="str">
         <f t="shared" si="2"/>
@@ -5358,12 +5487,12 @@
         <v>9</v>
       </c>
       <c r="G20" s="16">
-        <f>November!J22</f>
-        <v>18</v>
+        <f>November!L22</f>
+        <v>24</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="1"/>
@@ -5397,16 +5526,16 @@
         <v>9</v>
       </c>
       <c r="G21" s="16">
-        <f>November!J23</f>
-        <v>18</v>
+        <f>November!L23</f>
+        <v>24</v>
       </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I21" s="33">
         <f t="shared" si="1"/>
-        <v>91.666666666666657</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="J21" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5436,12 +5565,12 @@
         <v>9</v>
       </c>
       <c r="G22" s="16">
-        <f>November!J24</f>
-        <v>18</v>
+        <f>November!L24</f>
+        <v>24</v>
       </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I22" s="33">
         <f t="shared" si="1"/>
@@ -5475,16 +5604,16 @@
         <v>9</v>
       </c>
       <c r="G23" s="16">
-        <f>November!J25</f>
-        <v>18</v>
+        <f>November!L25</f>
+        <v>24</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I23" s="33">
         <f t="shared" si="1"/>
-        <v>91.666666666666657</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="J23" s="34" t="str">
         <f t="shared" si="2"/>
@@ -5492,40 +5621,40 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="A24" s="51">
         <v>13</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="54">
         <f>August!J26</f>
         <v>0</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="54">
         <f>September!J26</f>
         <v>6</v>
       </c>
-      <c r="F24" s="84">
+      <c r="F24" s="54">
         <f>October!J26</f>
         <v>9</v>
       </c>
-      <c r="G24" s="84">
-        <f>November!J26</f>
-        <v>9</v>
-      </c>
-      <c r="H24" s="85">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="I24" s="86">
-        <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="J24" s="87" t="str">
+      <c r="G24" s="54">
+        <f>November!L26</f>
+        <v>12</v>
+      </c>
+      <c r="H24" s="55">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I24" s="56">
+        <f t="shared" si="1"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="J24" s="57" t="str">
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
@@ -5542,15 +5671,15 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="67"/>
+      <c r="D27" s="58"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="77"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
@@ -5566,6 +5695,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J9:J11"/>
@@ -5581,15 +5719,6 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDF878-1495-4C6A-8FCF-7A952C3D4001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB43CF-3904-43FF-801D-04A3975D5D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t>09:00 AM To 12:00 PM</t>
   </si>
   <si>
-    <t>November 2022</t>
-  </si>
-  <si>
     <t>October 2022</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   <si>
     <t>09:00 TO
 12:00</t>
+  </si>
+  <si>
+    <t>November-December 2022</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,100 +796,103 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,118 +1489,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="74" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1611,10 +1614,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1626,16 +1629,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -1645,12 +1648,12 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -1670,19 +1673,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2517,16 +2520,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="58"/>
+      <c r="D55" s="77"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="58"/>
+      <c r="I55" s="77"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2546,6 +2549,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2557,16 +2570,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2604,118 +2607,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="74" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2729,10 +2732,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -2750,16 +2753,16 @@
       <c r="G10" s="28"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -2771,12 +2774,12 @@
       <c r="G11" s="32"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -2802,19 +2805,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3228,16 +3231,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="77"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="58" t="s">
+      <c r="H28" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="58"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3257,12 +3260,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3272,12 +3275,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3314,118 +3317,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="78"/>
+      <c r="E7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -3439,10 +3442,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -3460,16 +3463,16 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
@@ -3485,12 +3488,12 @@
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="72"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="70"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -3516,19 +3519,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="68"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3942,16 +3945,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="77"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="58" t="s">
+      <c r="H28" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="58"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3971,12 +3974,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3986,12 +3989,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4007,8 +4010,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4028,134 +4031,134 @@
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="50"/>
-      <c r="F5" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
+      <c r="F5" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="50"/>
-      <c r="F6" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
+      <c r="F6" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="50"/>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4171,10 +4174,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -4198,55 +4201,55 @@
       <c r="I10" s="28">
         <v>27</v>
       </c>
-      <c r="J10" s="27">
-        <v>3</v>
-      </c>
-      <c r="K10" s="27">
-        <v>4</v>
-      </c>
-      <c r="L10" s="76" t="s">
+      <c r="J10" s="91">
+        <v>44898</v>
+      </c>
+      <c r="K10" s="91">
+        <v>44899</v>
+      </c>
+      <c r="L10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="69" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="77"/>
-      <c r="M11" s="72"/>
+        <v>63</v>
+      </c>
+      <c r="L11" s="76"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
@@ -4284,21 +4287,21 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="70"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -4862,7 +4865,7 @@
     <row r="27" spans="1:13" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="89"/>
+      <c r="E27" s="58"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -4870,18 +4873,18 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="90"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="59"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="58"/>
+      <c r="K28" s="77"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="3"/>
@@ -4905,12 +4908,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
@@ -4920,12 +4923,12 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4941,7 +4944,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4963,103 +4966,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="60" t="s">
+      <c r="D3" s="90"/>
+      <c r="E3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="60" t="s">
+      <c r="D4" s="90"/>
+      <c r="E4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="60" t="s">
+      <c r="D6" s="90"/>
+      <c r="E6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="75" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -5073,56 +5076,56 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="88" t="str">
+      <c r="C9" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="86" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="88" t="str">
+      <c r="E9" s="86" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="88" t="str">
+      <c r="F9" s="86" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="88" t="str">
+      <c r="G9" s="86" t="str">
         <f>November!F5</f>
-        <v>November 2022</v>
-      </c>
-      <c r="H9" s="76" t="s">
+        <v>November-December 2022</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="88" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
@@ -5150,7 +5153,7 @@
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="80"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
@@ -5671,15 +5674,15 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="77"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="78"/>
+      <c r="H27" s="87"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
@@ -5695,15 +5698,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J9:J11"/>
@@ -5719,6 +5713,15 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EB43CF-3904-43FF-801D-04A3975D5D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B4F47-BE8C-4253-99F9-18E529FC9883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -388,12 +388,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -619,37 +619,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,9 +663,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -733,10 +704,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,10 +725,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -774,11 +737,78 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -792,108 +822,31 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1489,118 +1442,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="C1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="74" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1614,78 +1567,78 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="75" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="70"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24">
         <f>SUM(D12:I12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="31" t="e">
+      <c r="K12" s="30" t="e">
         <f>(J12/$J$12)*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -1693,17 +1646,17 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="25">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="24">
         <f>SUM(D14:I14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="26" t="e">
+      <c r="K14" s="25" t="e">
         <f t="shared" ref="K14:K53" si="0">(J14/$J$12)*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -1720,11 +1673,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" ref="J15:J53" si="1">SUM(D15:I15)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="20" t="e">
+      <c r="K15" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1741,11 +1694,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="20" t="e">
+      <c r="J16" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1762,11 +1715,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20" t="e">
+      <c r="J17" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1783,11 +1736,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="20" t="e">
+      <c r="J18" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1804,11 +1757,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="20" t="e">
+      <c r="J19" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1825,11 +1778,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="20" t="e">
+      <c r="J20" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1846,11 +1799,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="20" t="e">
+      <c r="J21" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1867,11 +1820,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="20" t="e">
+      <c r="J22" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1888,11 +1841,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="20" t="e">
+      <c r="J23" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1909,11 +1862,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="20" t="e">
+      <c r="J24" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1930,11 +1883,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="20" t="e">
+      <c r="J25" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1951,11 +1904,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="20" t="e">
+      <c r="J26" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1972,11 +1925,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="20" t="e">
+      <c r="J27" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1993,11 +1946,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="20" t="e">
+      <c r="J28" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2014,11 +1967,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-      <c r="J29" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="20" t="e">
+      <c r="J29" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2035,11 +1988,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="20" t="e">
+      <c r="J30" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2056,11 +2009,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-      <c r="J31" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="20" t="e">
+      <c r="J31" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2077,11 +2030,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-      <c r="J32" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="20" t="e">
+      <c r="J32" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2098,11 +2051,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-      <c r="J33" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="20" t="e">
+      <c r="J33" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2119,11 +2072,11 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="20" t="e">
+      <c r="J34" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2140,11 +2093,11 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-      <c r="J35" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="20" t="e">
+      <c r="J35" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2161,11 +2114,11 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="20" t="e">
+      <c r="J36" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2182,11 +2135,11 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="20" t="e">
+      <c r="J37" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2203,11 +2156,11 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="20" t="e">
+      <c r="J38" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2224,11 +2177,11 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="20" t="e">
+      <c r="J39" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2245,11 +2198,11 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="20" t="e">
+      <c r="J40" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2266,11 +2219,11 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="20" t="e">
+      <c r="J41" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2287,11 +2240,11 @@
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
-      <c r="J42" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="20" t="e">
+      <c r="J42" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2308,11 +2261,11 @@
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-      <c r="J43" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="20" t="e">
+      <c r="J43" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2329,11 +2282,11 @@
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-      <c r="J44" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="20" t="e">
+      <c r="J44" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2350,11 +2303,11 @@
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-      <c r="J45" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="20" t="e">
+      <c r="J45" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2371,11 +2324,11 @@
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
-      <c r="J46" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="20" t="e">
+      <c r="J46" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2390,8 +2343,8 @@
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="20"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="19"/>
     </row>
     <row r="48" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
@@ -2403,8 +2356,8 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="20"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="19"/>
     </row>
     <row r="49" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
@@ -2418,11 +2371,11 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
-      <c r="J49" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="20" t="e">
+      <c r="J49" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2439,11 +2392,11 @@
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
       <c r="I50" s="16"/>
-      <c r="J50" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="20" t="e">
+      <c r="J50" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2460,11 +2413,11 @@
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
-      <c r="J51" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="20" t="e">
+      <c r="J51" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2481,11 +2434,11 @@
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="J52" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="20" t="e">
+      <c r="J52" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2502,11 +2455,11 @@
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
-      <c r="J53" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="20" t="e">
+      <c r="J53" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2520,16 +2473,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="77"/>
+      <c r="D55" s="47"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="77" t="s">
+      <c r="H55" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="77"/>
+      <c r="I55" s="47"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2549,16 +2502,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2570,6 +2513,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2607,118 +2560,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="C1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="74" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2732,92 +2685,92 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>11</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>24</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>24</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="75" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="70"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25">
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
+      <c r="E12" s="23">
+        <v>3</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24">
         <f>SUM(D12:I12)</f>
         <v>9</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <f>(J12/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2839,13 +2792,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="25">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="24">
         <f>SUM(D14:I14)</f>
         <v>6</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <f t="shared" ref="K14:K26" si="0">(J14/$J$12)*100</f>
         <v>66.666666666666657</v>
       </c>
@@ -2872,11 +2825,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" ref="J15:J26" si="1">SUM(D15:I15)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2903,11 +2856,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2934,11 +2887,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2962,14 +2915,14 @@
       <c r="F18" s="16">
         <v>3</v>
       </c>
-      <c r="G18" s="35"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -2993,14 +2946,14 @@
       <c r="F19" s="16">
         <v>3</v>
       </c>
-      <c r="G19" s="35"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
@@ -3024,14 +2977,14 @@
       <c r="F20" s="16">
         <v>3</v>
       </c>
-      <c r="G20" s="35"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3055,14 +3008,14 @@
       <c r="F21" s="16">
         <v>3</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3086,14 +3039,14 @@
       <c r="F22" s="16">
         <v>3</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="25">
+      <c r="J22" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3117,14 +3070,14 @@
       <c r="F23" s="16">
         <v>3</v>
       </c>
-      <c r="G23" s="35"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
@@ -3148,14 +3101,14 @@
       <c r="F24" s="16">
         <v>3</v>
       </c>
-      <c r="G24" s="35"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3179,14 +3132,14 @@
       <c r="F25" s="16">
         <v>3</v>
       </c>
-      <c r="G25" s="36"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
@@ -3210,14 +3163,14 @@
       <c r="F26" s="16">
         <v>3</v>
       </c>
-      <c r="G26" s="35"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
@@ -3231,16 +3184,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="47"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="77"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3260,12 +3213,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3275,12 +3228,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3317,118 +3270,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="C1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="73" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="74" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -3442,96 +3395,96 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>9</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>16</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="75" t="s">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="70"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25">
+      <c r="D12" s="23">
+        <v>3</v>
+      </c>
+      <c r="E12" s="23">
+        <v>3</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24">
         <f>SUM(D12:I12)</f>
         <v>9</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <f>(J12/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3554,12 +3507,12 @@
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="25">
+      <c r="I14" s="18"/>
+      <c r="J14" s="24">
         <f>SUM(D14:I14)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <f t="shared" ref="K14:K26" si="0">(J14/$J$12)*100</f>
         <v>0</v>
       </c>
@@ -3586,11 +3539,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <f t="shared" ref="J15:J26" si="1">SUM(D15:I15)</f>
         <v>9</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3617,11 +3570,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3648,11 +3601,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3679,11 +3632,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3710,11 +3663,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3741,11 +3694,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3772,11 +3725,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="20">
+      <c r="J21" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3803,11 +3756,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="25">
+      <c r="J22" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3834,11 +3787,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3865,11 +3818,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3896,11 +3849,11 @@
       <c r="G25" s="8"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3927,11 +3880,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -3945,16 +3898,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="77"/>
+      <c r="D28" s="47"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="77" t="s">
+      <c r="H28" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="77"/>
+      <c r="I28" s="47"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3974,12 +3927,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3989,12 +3942,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4010,8 +3963,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4019,11 +3972,13 @@
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6" style="4" customWidth="1"/>
+    <col min="9" max="10" width="6.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -4031,141 +3986,141 @@
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="C1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="72" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="72" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="73" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="72" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="72" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="74" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="50"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -4174,136 +4129,136 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>5</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>6</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>13</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>20</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>26</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>27</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="46">
         <v>44898</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="46">
         <v>44899</v>
       </c>
       <c r="L10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="70"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24">
-        <v>3</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="F12" s="24">
-        <v>3</v>
-      </c>
-      <c r="G12" s="24">
-        <v>3</v>
-      </c>
-      <c r="H12" s="24">
-        <v>3</v>
-      </c>
-      <c r="I12" s="24">
-        <v>3</v>
-      </c>
-      <c r="J12" s="24">
-        <v>3</v>
-      </c>
-      <c r="K12" s="24">
-        <v>3</v>
-      </c>
-      <c r="L12" s="25">
+      <c r="D12" s="27">
+        <v>3</v>
+      </c>
+      <c r="E12" s="27">
+        <v>3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>3</v>
+      </c>
+      <c r="G12" s="27">
+        <v>3</v>
+      </c>
+      <c r="H12" s="27">
+        <v>3</v>
+      </c>
+      <c r="I12" s="27">
+        <v>3</v>
+      </c>
+      <c r="J12" s="27">
+        <v>3</v>
+      </c>
+      <c r="K12" s="27">
+        <v>3</v>
+      </c>
+      <c r="L12" s="76">
         <f>SUM(D12:K12)</f>
         <v>24</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="77">
         <f>(L12/$L$12)*100</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-    </row>
-    <row r="14" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -4313,40 +4268,40 @@
       <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>3</v>
-      </c>
-      <c r="H14" s="19">
-        <v>3</v>
-      </c>
-      <c r="I14" s="19">
-        <v>3</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>3</v>
+      </c>
+      <c r="H14" s="16">
+        <v>3</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3</v>
+      </c>
+      <c r="J14" s="16">
+        <v>3</v>
+      </c>
+      <c r="K14" s="16">
+        <v>3</v>
+      </c>
+      <c r="L14" s="76">
         <f>SUM(D14:K14)</f>
-        <v>9</v>
-      </c>
-      <c r="M14" s="26">
+        <v>15</v>
+      </c>
+      <c r="M14" s="78">
         <f t="shared" ref="M14:M26" si="0">(L14/$L$12)*100</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -4368,10 +4323,10 @@
       <c r="G15" s="16">
         <v>3</v>
       </c>
-      <c r="H15" s="19">
-        <v>3</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="H15" s="16">
+        <v>3</v>
+      </c>
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="16">
@@ -4380,16 +4335,16 @@
       <c r="K15" s="16">
         <v>3</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="76">
         <f t="shared" ref="L15:L26" si="1">SUM(D15:K15)</f>
         <v>24</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -4411,10 +4366,10 @@
       <c r="G16" s="16">
         <v>3</v>
       </c>
-      <c r="H16" s="19">
-        <v>3</v>
-      </c>
-      <c r="I16" s="19">
+      <c r="H16" s="16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16">
         <v>3</v>
       </c>
       <c r="J16" s="16">
@@ -4423,16 +4378,16 @@
       <c r="K16" s="16">
         <v>3</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>4</v>
       </c>
@@ -4454,10 +4409,10 @@
       <c r="G17" s="16">
         <v>3</v>
       </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
         <v>0</v>
       </c>
       <c r="J17" s="16">
@@ -4466,16 +4421,16 @@
       <c r="K17" s="16">
         <v>3</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="76">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="78">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>5</v>
       </c>
@@ -4497,10 +4452,10 @@
       <c r="G18" s="16">
         <v>3</v>
       </c>
-      <c r="H18" s="19">
-        <v>3</v>
-      </c>
-      <c r="I18" s="19">
+      <c r="H18" s="16">
+        <v>3</v>
+      </c>
+      <c r="I18" s="16">
         <v>3</v>
       </c>
       <c r="J18" s="16">
@@ -4509,16 +4464,16 @@
       <c r="K18" s="16">
         <v>3</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>6</v>
       </c>
@@ -4540,10 +4495,10 @@
       <c r="G19" s="16">
         <v>3</v>
       </c>
-      <c r="H19" s="19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="19">
+      <c r="H19" s="16">
+        <v>3</v>
+      </c>
+      <c r="I19" s="16">
         <v>3</v>
       </c>
       <c r="J19" s="16">
@@ -4552,16 +4507,16 @@
       <c r="K19" s="16">
         <v>3</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>7</v>
       </c>
@@ -4583,10 +4538,10 @@
       <c r="G20" s="16">
         <v>3</v>
       </c>
-      <c r="H20" s="19">
-        <v>3</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="H20" s="16">
+        <v>3</v>
+      </c>
+      <c r="I20" s="16">
         <v>3</v>
       </c>
       <c r="J20" s="16">
@@ -4595,16 +4550,16 @@
       <c r="K20" s="16">
         <v>3</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>8</v>
       </c>
@@ -4626,10 +4581,10 @@
       <c r="G21" s="16">
         <v>3</v>
       </c>
-      <c r="H21" s="19">
-        <v>3</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="H21" s="16">
+        <v>3</v>
+      </c>
+      <c r="I21" s="16">
         <v>3</v>
       </c>
       <c r="J21" s="16">
@@ -4638,16 +4593,16 @@
       <c r="K21" s="16">
         <v>3</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>9</v>
       </c>
@@ -4669,10 +4624,10 @@
       <c r="G22" s="16">
         <v>3</v>
       </c>
-      <c r="H22" s="19">
-        <v>3</v>
-      </c>
-      <c r="I22" s="19">
+      <c r="H22" s="16">
+        <v>3</v>
+      </c>
+      <c r="I22" s="16">
         <v>3</v>
       </c>
       <c r="J22" s="16">
@@ -4681,16 +4636,16 @@
       <c r="K22" s="16">
         <v>3</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10</v>
       </c>
@@ -4712,10 +4667,10 @@
       <c r="G23" s="16">
         <v>3</v>
       </c>
-      <c r="H23" s="19">
-        <v>3</v>
-      </c>
-      <c r="I23" s="19">
+      <c r="H23" s="16">
+        <v>3</v>
+      </c>
+      <c r="I23" s="16">
         <v>3</v>
       </c>
       <c r="J23" s="16">
@@ -4724,16 +4679,16 @@
       <c r="K23" s="16">
         <v>3</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>11</v>
       </c>
@@ -4755,10 +4710,10 @@
       <c r="G24" s="16">
         <v>3</v>
       </c>
-      <c r="H24" s="19">
-        <v>3</v>
-      </c>
-      <c r="I24" s="19">
+      <c r="H24" s="16">
+        <v>3</v>
+      </c>
+      <c r="I24" s="16">
         <v>3</v>
       </c>
       <c r="J24" s="16">
@@ -4767,23 +4722,23 @@
       <c r="K24" s="16">
         <v>3</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>12</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="16">
@@ -4798,10 +4753,10 @@
       <c r="G25" s="16">
         <v>3</v>
       </c>
-      <c r="H25" s="19">
-        <v>3</v>
-      </c>
-      <c r="I25" s="19">
+      <c r="H25" s="16">
+        <v>3</v>
+      </c>
+      <c r="I25" s="16">
         <v>3</v>
       </c>
       <c r="J25" s="16">
@@ -4810,11 +4765,11 @@
       <c r="K25" s="16">
         <v>3</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="78">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4841,10 +4796,10 @@
       <c r="G26" s="16">
         <v>0</v>
       </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
         <v>0</v>
       </c>
       <c r="J26" s="16">
@@ -4853,11 +4808,11 @@
       <c r="K26" s="16">
         <v>3</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="76">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="78">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -4865,7 +4820,7 @@
     <row r="27" spans="1:13" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="44"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -4873,18 +4828,18 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="45"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="77" t="s">
+      <c r="J28" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="77"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="3"/>
@@ -4908,12 +4863,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
@@ -4923,12 +4878,12 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4944,8 +4899,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4966,167 +4921,167 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="C1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="72" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="74" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="86" t="str">
+      <c r="C9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="80" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="86" t="str">
+      <c r="E9" s="80" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="86" t="str">
+      <c r="F9" s="80" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="86" t="str">
+      <c r="G9" s="80" t="str">
         <f>November!F5</f>
         <v>November-December 2022</v>
       </c>
       <c r="H9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="88" t="s">
+      <c r="J9" s="81" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="89"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8">
@@ -5145,51 +5100,51 @@
         <f>November!L12</f>
         <v>24</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f t="shared" ref="H11:H24" si="0">SUM(D11:G11)</f>
         <v>42</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="78">
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="89"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="34">
         <v>1</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="37">
         <f>August!J14</f>
         <v>0</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="37">
         <f>September!J14</f>
         <v>6</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="37">
         <f>October!J14</f>
         <v>0</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="37">
         <f>November!L14</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="41">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I12" s="42">
+      <c r="H12" s="38">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I12" s="82">
         <f t="shared" ref="I12:I24" si="1">(H12/$H$11)*100</f>
-        <v>35.714285714285715</v>
-      </c>
-      <c r="J12" s="43" t="str">
+        <v>50</v>
+      </c>
+      <c r="J12" s="37" t="str">
         <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
         <v>Not Eligible</v>
       </c>
@@ -5220,15 +5175,15 @@
         <f>November!L15</f>
         <v>24</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="78">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J13" s="34" t="str">
+      <c r="J13" s="16" t="str">
         <f>IF(AND(I13&gt;=75),"Eligible","Not Eligible")</f>
         <v>Eligible</v>
       </c>
@@ -5259,15 +5214,15 @@
         <f>November!L16</f>
         <v>24</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="78">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J14" s="34" t="str">
+      <c r="J14" s="16" t="str">
         <f t="shared" ref="J14:J24" si="2">IF(AND(I14&gt;=75),"Eligible","Not Eligible")</f>
         <v>Eligible</v>
       </c>
@@ -5298,15 +5253,15 @@
         <f>November!L17</f>
         <v>18</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="78">
         <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
-      <c r="J15" s="34" t="str">
+      <c r="J15" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5337,15 +5292,15 @@
         <f>November!L18</f>
         <v>24</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="78">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J16" s="34" t="str">
+      <c r="J16" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5376,15 +5331,15 @@
         <f>November!L19</f>
         <v>24</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="78">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
-      <c r="J17" s="34" t="str">
+      <c r="J17" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5415,54 +5370,54 @@
         <f>November!L20</f>
         <v>24</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="78">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J18" s="34" t="str">
+      <c r="J18" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
+      <c r="A19" s="39">
         <v>8</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="41">
         <f>August!J21</f>
         <v>0</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="41">
         <f>September!J21</f>
         <v>9</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="41">
         <f>October!J21</f>
         <v>0</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="41">
         <f>November!L21</f>
         <v>24</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="42">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I19" s="83">
         <f t="shared" si="1"/>
         <v>78.571428571428569</v>
       </c>
-      <c r="J19" s="49" t="str">
+      <c r="J19" s="41" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5493,15 +5448,15 @@
         <f>November!L22</f>
         <v>24</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="78">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J20" s="34" t="str">
+      <c r="J20" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5532,15 +5487,15 @@
         <f>November!L23</f>
         <v>24</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="78">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
-      <c r="J21" s="34" t="str">
+      <c r="J21" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5571,15 +5526,15 @@
         <f>November!L24</f>
         <v>24</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="78">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J22" s="34" t="str">
+      <c r="J22" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5591,7 +5546,7 @@
       <c r="B23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="16">
@@ -5610,54 +5565,54 @@
         <f>November!L25</f>
         <v>24</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="78">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
-      <c r="J23" s="34" t="str">
+      <c r="J23" s="16" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="51">
+      <c r="A24" s="69">
         <v>13</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="72">
         <f>August!J26</f>
         <v>0</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="72">
         <f>September!J26</f>
         <v>6</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="72">
         <f>October!J26</f>
         <v>9</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="72">
         <f>November!L26</f>
         <v>12</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="73">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="84">
         <f t="shared" si="1"/>
         <v>64.285714285714292</v>
       </c>
-      <c r="J24" s="57" t="str">
+      <c r="J24" s="72" t="str">
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
@@ -5674,15 +5629,15 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="77"/>
+      <c r="D27" s="47"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="87" t="s">
+      <c r="G27" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="87"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
@@ -5698,6 +5653,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J9:J11"/>
@@ -5713,15 +5677,6 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>

--- a/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B4F47-BE8C-4253-99F9-18E529FC9883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6661508-6714-4F87-9442-01FBD7B1939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,12 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,14 +731,21 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,50 +804,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1442,118 +1434,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1567,10 +1559,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -1582,16 +1574,16 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -1601,12 +1593,12 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
@@ -1626,19 +1618,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2473,16 +2465,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="47"/>
+      <c r="D55" s="50"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="47" t="s">
+      <c r="H55" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="47"/>
+      <c r="I55" s="50"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2560,118 +2552,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2685,10 +2677,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -2706,16 +2698,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -2727,12 +2719,12 @@
       <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
@@ -2758,19 +2750,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3184,16 +3176,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="50"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3270,118 +3262,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -3395,10 +3387,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -3416,16 +3408,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="60" t="s">
+      <c r="K10" s="63" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -3441,12 +3433,12 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
@@ -3472,19 +3464,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3898,16 +3890,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="50"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="47"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3964,7 +3956,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3986,141 +3978,141 @@
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="49" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="49" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="63" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="49" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="64" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -4129,10 +4121,10 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="70" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -4156,22 +4148,22 @@
       <c r="I10" s="27">
         <v>27</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="44">
         <v>44898</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="44">
         <v>44899</v>
       </c>
-      <c r="L10" s="75" t="s">
+      <c r="L10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="75" t="s">
+      <c r="M10" s="71" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -4199,12 +4191,12 @@
       <c r="K11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="26" t="s">
         <v>13</v>
       </c>
@@ -4232,31 +4224,31 @@
       <c r="K12" s="27">
         <v>3</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="45">
         <f>SUM(D12:K12)</f>
         <v>24</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="46">
         <f>(L12/$L$12)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -4292,11 +4284,11 @@
       <c r="K14" s="16">
         <v>3</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="45">
         <f>SUM(D14:K14)</f>
         <v>15</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M14" s="47">
         <f t="shared" ref="M14:M26" si="0">(L14/$L$12)*100</f>
         <v>62.5</v>
       </c>
@@ -4335,11 +4327,11 @@
       <c r="K15" s="16">
         <v>3</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="45">
         <f t="shared" ref="L15:L26" si="1">SUM(D15:K15)</f>
         <v>24</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4378,11 +4370,11 @@
       <c r="K16" s="16">
         <v>3</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4421,11 +4413,11 @@
       <c r="K17" s="16">
         <v>3</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="45">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M17" s="78">
+      <c r="M17" s="47">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4464,11 +4456,11 @@
       <c r="K18" s="16">
         <v>3</v>
       </c>
-      <c r="L18" s="76">
+      <c r="L18" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M18" s="78">
+      <c r="M18" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4507,11 +4499,11 @@
       <c r="K19" s="16">
         <v>3</v>
       </c>
-      <c r="L19" s="76">
+      <c r="L19" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M19" s="78">
+      <c r="M19" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4550,11 +4542,11 @@
       <c r="K20" s="16">
         <v>3</v>
       </c>
-      <c r="L20" s="76">
+      <c r="L20" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M20" s="78">
+      <c r="M20" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4593,11 +4585,11 @@
       <c r="K21" s="16">
         <v>3</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M21" s="78">
+      <c r="M21" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4636,11 +4628,11 @@
       <c r="K22" s="16">
         <v>3</v>
       </c>
-      <c r="L22" s="76">
+      <c r="L22" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M22" s="78">
+      <c r="M22" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4679,11 +4671,11 @@
       <c r="K23" s="16">
         <v>3</v>
       </c>
-      <c r="L23" s="76">
+      <c r="L23" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M23" s="78">
+      <c r="M23" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4722,11 +4714,11 @@
       <c r="K24" s="16">
         <v>3</v>
       </c>
-      <c r="L24" s="76">
+      <c r="L24" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M24" s="78">
+      <c r="M24" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4765,11 +4757,11 @@
       <c r="K25" s="16">
         <v>3</v>
       </c>
-      <c r="L25" s="76">
+      <c r="L25" s="45">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M25" s="78">
+      <c r="M25" s="47">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4800,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="16">
         <v>3</v>
@@ -4808,19 +4800,18 @@
       <c r="K26" s="16">
         <v>3</v>
       </c>
-      <c r="L26" s="76">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="M26" s="78">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="L26" s="45">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M26" s="47">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="44"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -4828,18 +4819,18 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="43"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="47"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="3"/>
@@ -4900,7 +4891,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4921,103 +4912,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="74"/>
+      <c r="E5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5031,56 +5022,56 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="80" t="str">
+      <c r="C9" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="76" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="80" t="str">
+      <c r="E9" s="76" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="80" t="str">
+      <c r="F9" s="76" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="80" t="str">
+      <c r="G9" s="76" t="str">
         <f>November!F5</f>
         <v>November-December 2022</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="73" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="81"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="26" t="s">
         <v>13</v>
       </c>
@@ -5104,11 +5095,11 @@
         <f t="shared" ref="H11:H24" si="0">SUM(D11:G11)</f>
         <v>42</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="47">
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34">
@@ -5140,7 +5131,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I12" s="82">
+      <c r="I12" s="48">
         <f t="shared" ref="I12:I24" si="1">(H12/$H$11)*100</f>
         <v>50</v>
       </c>
@@ -5179,7 +5170,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5218,7 +5209,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5257,7 +5248,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I15" s="78">
+      <c r="I15" s="47">
         <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
@@ -5296,7 +5287,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5335,7 +5326,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I17" s="78">
+      <c r="I17" s="47">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5374,7 +5365,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I18" s="78">
+      <c r="I18" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5413,7 +5404,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="49">
         <f t="shared" si="1"/>
         <v>78.571428571428569</v>
       </c>
@@ -5452,7 +5443,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5491,7 +5482,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I21" s="78">
+      <c r="I21" s="47">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5530,7 +5521,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="47">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5569,7 +5560,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I23" s="78">
+      <c r="I23" s="47">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5579,40 +5570,40 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="77">
         <v>13</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="80">
         <f>August!J26</f>
         <v>0</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="80">
         <f>September!J26</f>
         <v>6</v>
       </c>
-      <c r="F24" s="72">
+      <c r="F24" s="80">
         <f>October!J26</f>
         <v>9</v>
       </c>
-      <c r="G24" s="72">
+      <c r="G24" s="80">
         <f>November!L26</f>
-        <v>12</v>
-      </c>
-      <c r="H24" s="73">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I24" s="84">
-        <f t="shared" si="1"/>
-        <v>64.285714285714292</v>
-      </c>
-      <c r="J24" s="72" t="str">
+        <v>15</v>
+      </c>
+      <c r="H24" s="81">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I24" s="82">
+        <f t="shared" si="1"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="J24" s="80" t="str">
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
@@ -5629,15 +5620,15 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="50"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="72"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>

--- a/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
+++ b/Operational-Research_Fall_2022/OVERALL_ATTENDANCE_Operational Research-Fall 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6661508-6714-4F87-9442-01FBD7B1939B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937A30C8-A3CC-40AF-898C-4D87513EE7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -252,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -350,6 +350,21 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -711,9 +726,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,68 +758,74 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -819,26 +837,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1434,118 +1446,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="67" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1559,10 +1571,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -1574,16 +1586,16 @@
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -1593,12 +1605,12 @@
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
@@ -1618,19 +1630,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -2465,16 +2477,16 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="50"/>
+      <c r="D55" s="66"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="50" t="s">
+      <c r="H55" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="50"/>
+      <c r="I55" s="66"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
@@ -2494,6 +2506,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2505,16 +2527,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2552,118 +2564,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="67" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2677,10 +2689,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -2698,16 +2710,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -2719,12 +2731,12 @@
       <c r="G11" s="31"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
@@ -2750,19 +2762,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3176,16 +3188,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="66"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3205,12 +3217,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3220,12 +3232,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3262,118 +3274,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="66" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="67" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -3387,10 +3399,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -3408,16 +3420,16 @@
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
@@ -3433,12 +3445,12 @@
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="64"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="28" t="s">
         <v>13</v>
       </c>
@@ -3464,19 +3476,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -3890,16 +3902,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="66"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -3919,12 +3931,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -3934,12 +3946,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3955,8 +3967,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3978,134 +3990,134 @@
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="C1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -4148,16 +4160,16 @@
       <c r="I10" s="27">
         <v>27</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <v>44898</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="43">
         <v>44899</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="69" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4191,8 +4203,8 @@
       <c r="K11" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
@@ -4224,11 +4236,11 @@
       <c r="K12" s="27">
         <v>3</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <f>SUM(D12:K12)</f>
         <v>24</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="45">
         <f>(L12/$L$12)*100</f>
         <v>100</v>
       </c>
@@ -4261,13 +4273,13 @@
         <v>35</v>
       </c>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="16">
         <v>3</v>
@@ -4284,13 +4296,13 @@
       <c r="K14" s="16">
         <v>3</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <f>SUM(D14:K14)</f>
-        <v>15</v>
-      </c>
-      <c r="M14" s="47">
+        <v>24</v>
+      </c>
+      <c r="M14" s="46">
         <f t="shared" ref="M14:M26" si="0">(L14/$L$12)*100</f>
-        <v>62.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,11 +4339,11 @@
       <c r="K15" s="16">
         <v>3</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="44">
         <f t="shared" ref="L15:L26" si="1">SUM(D15:K15)</f>
         <v>24</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4370,11 +4382,11 @@
       <c r="K16" s="16">
         <v>3</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4413,11 +4425,11 @@
       <c r="K17" s="16">
         <v>3</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="44">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="46">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
@@ -4456,11 +4468,11 @@
       <c r="K18" s="16">
         <v>3</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M18" s="47">
+      <c r="M18" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4499,11 +4511,11 @@
       <c r="K19" s="16">
         <v>3</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4542,11 +4554,11 @@
       <c r="K20" s="16">
         <v>3</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4585,11 +4597,11 @@
       <c r="K21" s="16">
         <v>3</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M21" s="47">
+      <c r="M21" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4628,11 +4640,11 @@
       <c r="K22" s="16">
         <v>3</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M22" s="47">
+      <c r="M22" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4671,11 +4683,11 @@
       <c r="K23" s="16">
         <v>3</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4714,11 +4726,11 @@
       <c r="K24" s="16">
         <v>3</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M24" s="47">
+      <c r="M24" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4757,11 +4769,11 @@
       <c r="K25" s="16">
         <v>3</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="44">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="M25" s="47">
+      <c r="M25" s="46">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -4800,11 +4812,11 @@
       <c r="K26" s="16">
         <v>3</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="44">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="46">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
@@ -4819,18 +4831,18 @@
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="43"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="42"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="50"/>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G29" s="3"/>
@@ -4854,12 +4866,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="D13:M13"/>
@@ -4869,12 +4881,12 @@
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:K7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4890,8 +4902,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4912,103 +4924,103 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="C1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5022,56 +5034,56 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="76" t="str">
+      <c r="C9" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="72" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="72" t="str">
         <f>September!E5</f>
         <v>September 2022</v>
       </c>
-      <c r="F9" s="76" t="str">
+      <c r="F9" s="72" t="str">
         <f>October!E5</f>
         <v>October 2022</v>
       </c>
-      <c r="G9" s="76" t="str">
+      <c r="G9" s="72" t="str">
         <f>November!F5</f>
         <v>November-December 2022</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="73"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="26" t="s">
         <v>13</v>
       </c>
@@ -5095,47 +5107,47 @@
         <f t="shared" ref="H11:H24" si="0">SUM(D11:G11)</f>
         <v>42</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="46">
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="76">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="78">
         <f>August!J14</f>
         <v>0</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="78">
         <f>September!J14</f>
         <v>6</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="78">
         <f>October!J14</f>
         <v>0</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="78">
         <f>November!L14</f>
-        <v>15</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I12" s="48">
+        <v>24</v>
+      </c>
+      <c r="H12" s="79">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I12" s="80">
         <f t="shared" ref="I12:I24" si="1">(H12/$H$11)*100</f>
-        <v>50</v>
-      </c>
-      <c r="J12" s="37" t="str">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="J12" s="78" t="str">
         <f>IF(AND(I12&gt;=75),"Eligible","Not Eligible")</f>
         <v>Not Eligible</v>
       </c>
@@ -5170,7 +5182,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5209,7 +5221,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5248,7 +5260,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="46">
         <f t="shared" si="1"/>
         <v>85.714285714285708</v>
       </c>
@@ -5287,7 +5299,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5326,7 +5338,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="46">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5365,7 +5377,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5375,40 +5387,40 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="38">
         <v>8</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="40">
         <f>August!J21</f>
         <v>0</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="40">
         <f>September!J21</f>
         <v>9</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <f>October!J21</f>
         <v>0</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="40">
         <f>November!L21</f>
         <v>24</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="48">
         <f t="shared" si="1"/>
         <v>78.571428571428569</v>
       </c>
-      <c r="J19" s="41" t="str">
+      <c r="J19" s="40" t="str">
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
@@ -5443,7 +5455,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5482,7 +5494,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="46">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5521,7 +5533,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="46">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5560,7 +5572,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="46">
         <f t="shared" si="1"/>
         <v>92.857142857142861</v>
       </c>
@@ -5570,40 +5582,40 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
+      <c r="A24" s="34">
         <v>13</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="36">
         <f>August!J26</f>
         <v>0</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="36">
         <f>September!J26</f>
         <v>6</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="36">
         <f>October!J26</f>
         <v>9</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="36">
         <f>November!L26</f>
         <v>15</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I24" s="82">
+      <c r="I24" s="47">
         <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
-      <c r="J24" s="80" t="str">
+      <c r="J24" s="36" t="str">
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
@@ -5620,15 +5632,15 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="66"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="72"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="3"/>
@@ -5644,15 +5656,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J9:J11"/>
@@ -5668,6 +5671,15 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
